--- a/aplicaciones/www/estaticos/datos/descarga/ya7-2-pobreza-monetaria.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya7-2-pobreza-monetaria.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_mendivelso10_uniandes_edu_co/Documents/NIÑEZ_YA_2024/Datos_Procesados/YA_07/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE04BA9-21D0-F449-B272-7DE44412DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" xr2:uid="{06D7FC30-AADE-4617-B5A2-7962E7F5FDCB}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{06D7FC30-AADE-4617-B5A2-7962E7F5FDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -395,12 +394,12 @@
   <dimension ref="A1:C641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -419,7 +418,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -427,7 +426,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -435,7 +434,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -443,7 +442,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -451,7 +450,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -459,7 +458,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -467,7 +466,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -475,502 +474,502 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2012</v>
       </c>
       <c r="B10">
         <v>1001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2012</v>
       </c>
       <c r="B11">
         <v>5001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>28.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2012</v>
       </c>
       <c r="B12">
         <v>5000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2012</v>
       </c>
       <c r="B13">
         <v>8001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
         <v>8000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15">
         <v>11001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>26.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2012</v>
       </c>
       <c r="B16">
         <v>13001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>40.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2012</v>
       </c>
       <c r="B17">
         <v>13000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>50.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2012</v>
       </c>
       <c r="B18">
         <v>15000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>42.7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
       <c r="B19">
         <v>15001</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>34.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2012</v>
       </c>
       <c r="B20">
         <v>19001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>51.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2012</v>
       </c>
       <c r="B21">
         <v>19000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>68.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2012</v>
       </c>
       <c r="B22">
         <v>18000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>51.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2012</v>
       </c>
       <c r="B23">
         <v>18001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>49.9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2012</v>
       </c>
       <c r="B24">
         <v>17001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>26.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2012</v>
       </c>
       <c r="B25">
         <v>17000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2012</v>
       </c>
       <c r="B26">
         <v>20000</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>51.7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2012</v>
       </c>
       <c r="B27">
         <v>20001</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28">
         <v>23000</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29">
         <v>23001</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>41.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2012</v>
       </c>
       <c r="B30">
         <v>25000</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>26.8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2012</v>
       </c>
       <c r="B31">
         <v>27000</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32">
         <v>27001</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>66.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2012</v>
       </c>
       <c r="B33">
         <v>44001</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>44.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2012</v>
       </c>
       <c r="B34">
         <v>44000</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>61.9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2012</v>
       </c>
       <c r="B35">
         <v>41001</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2012</v>
       </c>
       <c r="B36">
         <v>41000</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>53.6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2012</v>
       </c>
       <c r="B37">
         <v>47001</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>42.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2012</v>
       </c>
       <c r="B38">
         <v>47000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>58.3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2012</v>
       </c>
       <c r="B39">
         <v>50001</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2012</v>
       </c>
       <c r="B40">
         <v>50000</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2012</v>
       </c>
       <c r="B41">
         <v>54000</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>44.2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2012</v>
       </c>
       <c r="B42">
         <v>54001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>35.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2012</v>
       </c>
       <c r="B43">
         <v>52000</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>60.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2012</v>
       </c>
       <c r="B44">
         <v>52001</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>50.9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2012</v>
       </c>
       <c r="B45">
         <v>66001</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>33.9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2012</v>
       </c>
       <c r="B46">
         <v>66000</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>38.4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2012</v>
       </c>
       <c r="B47">
         <v>63001</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>44.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2012</v>
       </c>
       <c r="B48">
         <v>63000</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>47.1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2012</v>
       </c>
       <c r="B49">
         <v>68000</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>30.6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2012</v>
       </c>
       <c r="B50">
         <v>68001</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>23.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2012</v>
       </c>
       <c r="B51">
         <v>70000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>57.1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2012</v>
       </c>
       <c r="B52">
         <v>70001</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2012</v>
       </c>
       <c r="B53">
         <v>73000</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>48.8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2012</v>
       </c>
       <c r="B54">
         <v>73001</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>32.5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2012</v>
       </c>
@@ -978,7 +977,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2012</v>
       </c>
@@ -986,7 +985,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2012</v>
       </c>
@@ -994,7 +993,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2012</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2012</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2012</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2012</v>
       </c>
@@ -1026,29 +1025,29 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2012</v>
       </c>
       <c r="B62">
         <v>76001</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>30.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2012</v>
       </c>
       <c r="B63">
         <v>76000</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>31.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2012</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -1080,29 +1079,29 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2013</v>
       </c>
       <c r="B68">
         <v>76000</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>32.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2013</v>
       </c>
       <c r="B69">
         <v>76001</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>28.7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2013</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2013</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2013</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2013</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2013</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2013</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2013</v>
       </c>
@@ -1158,502 +1157,502 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2013</v>
       </c>
       <c r="B77">
         <v>73001</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>29.6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2013</v>
       </c>
       <c r="B78">
         <v>73000</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>42.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2013</v>
       </c>
       <c r="B79">
         <v>70001</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>37.9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2013</v>
       </c>
       <c r="B80">
         <v>70000</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>52.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2013</v>
       </c>
       <c r="B81">
         <v>68001</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>22.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2013</v>
       </c>
       <c r="B82">
         <v>68000</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>28.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2013</v>
       </c>
       <c r="B83">
         <v>63000</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>43.7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2013</v>
       </c>
       <c r="B84">
         <v>63001</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2013</v>
       </c>
       <c r="B85">
         <v>66000</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>39.4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2013</v>
       </c>
       <c r="B86">
         <v>66001</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>37.1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2013</v>
       </c>
       <c r="B87">
         <v>52001</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>43.9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2013</v>
       </c>
       <c r="B88">
         <v>52000</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>57.1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2013</v>
       </c>
       <c r="B89">
         <v>54001</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>34.5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2013</v>
       </c>
       <c r="B90">
         <v>54000</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>43.6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2013</v>
       </c>
       <c r="B91">
         <v>50000</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2013</v>
       </c>
       <c r="B92">
         <v>50001</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>32.5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2013</v>
       </c>
       <c r="B93">
         <v>47000</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>56.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2013</v>
       </c>
       <c r="B94">
         <v>47001</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>40.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2013</v>
       </c>
       <c r="B95">
         <v>41000</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>54.3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2013</v>
       </c>
       <c r="B96">
         <v>41001</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2013</v>
       </c>
       <c r="B97">
         <v>44000</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>59.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2013</v>
       </c>
       <c r="B98">
         <v>44001</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>41.9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2013</v>
       </c>
       <c r="B99">
         <v>27001</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>64.2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2013</v>
       </c>
       <c r="B100">
         <v>27000</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2013</v>
       </c>
       <c r="B101">
         <v>25000</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>21.7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2013</v>
       </c>
       <c r="B102">
         <v>23001</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2013</v>
       </c>
       <c r="B103">
         <v>23000</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>57.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2013</v>
       </c>
       <c r="B104">
         <v>20001</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>37.6</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2013</v>
       </c>
       <c r="B105">
         <v>20000</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>50.4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2013</v>
       </c>
       <c r="B106">
         <v>17000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>39.4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2013</v>
       </c>
       <c r="B107">
         <v>17001</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>25.1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2013</v>
       </c>
       <c r="B108">
         <v>18001</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>47.9</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2013</v>
       </c>
       <c r="B109">
         <v>18000</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>50.6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2013</v>
       </c>
       <c r="B110">
         <v>19000</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2013</v>
       </c>
       <c r="B111">
         <v>19001</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>48.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2013</v>
       </c>
       <c r="B112">
         <v>15001</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>36.9</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2013</v>
       </c>
       <c r="B113">
         <v>15000</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>45.7</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2013</v>
       </c>
       <c r="B114">
         <v>13000</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>48.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2013</v>
       </c>
       <c r="B115">
         <v>13001</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>36.9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2013</v>
       </c>
       <c r="B116">
         <v>11001</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>24.3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2013</v>
       </c>
       <c r="B117">
         <v>8000</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2013</v>
       </c>
       <c r="B118">
         <v>8001</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2013</v>
       </c>
       <c r="B119">
         <v>5000</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>31.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2013</v>
       </c>
       <c r="B120">
         <v>5001</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2013</v>
       </c>
       <c r="B121">
         <v>1001</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2013</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2013</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2013</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2013</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2013</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2013</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2014</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2014</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2014</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2014</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2014</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2014</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2014</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -1781,502 +1780,502 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2014</v>
       </c>
       <c r="B138">
         <v>1001</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2014</v>
       </c>
       <c r="B139">
         <v>5001</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>24.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2014</v>
       </c>
       <c r="B140">
         <v>5000</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>31.7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2014</v>
       </c>
       <c r="B141">
         <v>8001</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>29.9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2014</v>
       </c>
       <c r="B142">
         <v>8000</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>32.6</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2014</v>
       </c>
       <c r="B143">
         <v>11001</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>23.3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2014</v>
       </c>
       <c r="B144">
         <v>13001</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>34.9</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2014</v>
       </c>
       <c r="B145">
         <v>13000</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>46.7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2014</v>
       </c>
       <c r="B146">
         <v>15000</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146">
         <v>44.3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2014</v>
       </c>
       <c r="B147">
         <v>15001</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147">
         <v>35.9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2014</v>
       </c>
       <c r="B148">
         <v>19001</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148">
         <v>48.8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2014</v>
       </c>
       <c r="B149">
         <v>19000</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149">
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2014</v>
       </c>
       <c r="B150">
         <v>18000</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150">
         <v>47.3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2014</v>
       </c>
       <c r="B151">
         <v>18001</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151">
         <v>44.6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2014</v>
       </c>
       <c r="B152">
         <v>17001</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152">
         <v>24.9</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2014</v>
       </c>
       <c r="B153">
         <v>17000</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153">
         <v>37.1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2014</v>
       </c>
       <c r="B154">
         <v>20000</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154">
         <v>47.2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2014</v>
       </c>
       <c r="B155">
         <v>20001</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2014</v>
       </c>
       <c r="B156">
         <v>23000</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156">
         <v>54.2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2014</v>
       </c>
       <c r="B157">
         <v>23001</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157">
         <v>25.9</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2014</v>
       </c>
       <c r="B158">
         <v>25000</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2014</v>
       </c>
       <c r="B159">
         <v>27000</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159">
         <v>72.3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2014</v>
       </c>
       <c r="B160">
         <v>27001</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160">
         <v>63.3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2014</v>
       </c>
       <c r="B161">
         <v>44001</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161">
         <v>41.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2014</v>
       </c>
       <c r="B162">
         <v>44000</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162">
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2014</v>
       </c>
       <c r="B163">
         <v>41001</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2014</v>
       </c>
       <c r="B164">
         <v>41000</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164">
         <v>52.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2014</v>
       </c>
       <c r="B165">
         <v>47001</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165">
         <v>41.6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2014</v>
       </c>
       <c r="B166">
         <v>47000</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166">
         <v>54.6</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2014</v>
       </c>
       <c r="B167">
         <v>50001</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167">
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2014</v>
       </c>
       <c r="B168">
         <v>50000</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168">
         <v>31.4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2014</v>
       </c>
       <c r="B169">
         <v>54000</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169">
         <v>44.6</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2014</v>
       </c>
       <c r="B170">
         <v>54001</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170">
         <v>37.1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2014</v>
       </c>
       <c r="B171">
         <v>52000</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171">
         <v>53.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2014</v>
       </c>
       <c r="B172">
         <v>52001</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172">
         <v>43.1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2014</v>
       </c>
       <c r="B173">
         <v>66001</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173">
         <v>32.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2014</v>
       </c>
       <c r="B174">
         <v>66000</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174">
         <v>34.9</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2014</v>
       </c>
       <c r="B175">
         <v>63001</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175">
         <v>37.1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2014</v>
       </c>
       <c r="B176">
         <v>63000</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2014</v>
       </c>
       <c r="B177">
         <v>68000</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177">
         <v>27.8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2014</v>
       </c>
       <c r="B178">
         <v>68001</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178">
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2014</v>
       </c>
       <c r="B179">
         <v>70000</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179">
         <v>49.4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2014</v>
       </c>
       <c r="B180">
         <v>70001</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2014</v>
       </c>
       <c r="B181">
         <v>73000</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2014</v>
       </c>
       <c r="B182">
         <v>73001</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182">
         <v>27.1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2014</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2014</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2014</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2014</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2014</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2014</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2014</v>
       </c>
@@ -2332,29 +2331,29 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2014</v>
       </c>
       <c r="B190">
         <v>76001</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190">
         <v>26.1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2014</v>
       </c>
       <c r="B191">
         <v>76000</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191">
         <v>27.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2014</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2014</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2015</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2015</v>
       </c>
@@ -2386,29 +2385,29 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2015</v>
       </c>
       <c r="B196">
         <v>76000</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196">
         <v>26.6</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2015</v>
       </c>
       <c r="B197">
         <v>76001</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197">
         <v>23.6</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2015</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2015</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2015</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2015</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2015</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2015</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2015</v>
       </c>
@@ -2464,502 +2463,502 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2015</v>
       </c>
       <c r="B205">
         <v>73001</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205">
         <v>27.7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2015</v>
       </c>
       <c r="B206">
         <v>73000</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206">
         <v>40.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2015</v>
       </c>
       <c r="B207">
         <v>70001</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207">
         <v>33.1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2015</v>
       </c>
       <c r="B208">
         <v>70000</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208">
         <v>50.5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2015</v>
       </c>
       <c r="B209">
         <v>68001</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209">
         <v>20.6</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2015</v>
       </c>
       <c r="B210">
         <v>68000</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210">
         <v>26.9</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2015</v>
       </c>
       <c r="B211">
         <v>63000</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211">
         <v>40.5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2015</v>
       </c>
       <c r="B212">
         <v>63001</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212">
         <v>39.1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2015</v>
       </c>
       <c r="B213">
         <v>66000</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2015</v>
       </c>
       <c r="B214">
         <v>66001</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214">
         <v>30.7</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2015</v>
       </c>
       <c r="B215">
         <v>52001</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215">
         <v>40.6</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2015</v>
       </c>
       <c r="B216">
         <v>52000</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216">
         <v>50.2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2015</v>
       </c>
       <c r="B217">
         <v>54001</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217">
         <v>37.4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2015</v>
       </c>
       <c r="B218">
         <v>54000</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218">
         <v>45.9</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2015</v>
       </c>
       <c r="B219">
         <v>50000</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219">
         <v>30.2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2015</v>
       </c>
       <c r="B220">
         <v>50001</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220">
         <v>28.8</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2015</v>
       </c>
       <c r="B221">
         <v>47000</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221">
         <v>51.7</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2015</v>
       </c>
       <c r="B222">
         <v>47001</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222">
         <v>38.4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2015</v>
       </c>
       <c r="B223">
         <v>41000</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223">
         <v>53.3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2015</v>
       </c>
       <c r="B224">
         <v>41001</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224">
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2015</v>
       </c>
       <c r="B225">
         <v>44000</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225">
         <v>57.2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2015</v>
       </c>
       <c r="B226">
         <v>44001</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2015</v>
       </c>
       <c r="B227">
         <v>27001</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227">
         <v>65.7</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2015</v>
       </c>
       <c r="B228">
         <v>27000</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228">
         <v>70.7</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2015</v>
       </c>
       <c r="B229">
         <v>25000</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2015</v>
       </c>
       <c r="B230">
         <v>23001</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230">
         <v>31.4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2015</v>
       </c>
       <c r="B231">
         <v>23000</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231">
         <v>55.4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2015</v>
       </c>
       <c r="B232">
         <v>20001</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2015</v>
       </c>
       <c r="B233">
         <v>20000</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233">
         <v>48.6</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2015</v>
       </c>
       <c r="B234">
         <v>17000</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2015</v>
       </c>
       <c r="B235">
         <v>17001</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235">
         <v>22.6</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2015</v>
       </c>
       <c r="B236">
         <v>18001</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236">
         <v>43.5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2015</v>
       </c>
       <c r="B237">
         <v>18000</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237">
         <v>51.2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2015</v>
       </c>
       <c r="B238">
         <v>19000</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238">
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2015</v>
       </c>
       <c r="B239">
         <v>19001</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239">
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2015</v>
       </c>
       <c r="B240">
         <v>15001</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2015</v>
       </c>
       <c r="B241">
         <v>15000</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241">
         <v>42.9</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2015</v>
       </c>
       <c r="B242">
         <v>13000</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242">
         <v>46.8</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2015</v>
       </c>
       <c r="B243">
         <v>13001</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243">
         <v>34.9</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2015</v>
       </c>
       <c r="B244">
         <v>11001</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244">
         <v>25.1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2015</v>
       </c>
       <c r="B245">
         <v>8000</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245">
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2015</v>
       </c>
       <c r="B246">
         <v>8001</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246">
         <v>26.7</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2015</v>
       </c>
       <c r="B247">
         <v>5000</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247">
         <v>31.1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2015</v>
       </c>
       <c r="B248">
         <v>5001</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248">
         <v>23.8</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2015</v>
       </c>
       <c r="B249">
         <v>1001</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249">
         <v>36.1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2015</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2015</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2015</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2015</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2015</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2015</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2015</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2015</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2016</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2016</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2016</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2016</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2016</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2016</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2016</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2016</v>
       </c>
@@ -3087,502 +3086,502 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2016</v>
       </c>
       <c r="B266">
         <v>1001</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2016</v>
       </c>
       <c r="B267">
         <v>5001</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267">
         <v>24.2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2016</v>
       </c>
       <c r="B268">
         <v>5000</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268">
         <v>29.8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2016</v>
       </c>
       <c r="B269">
         <v>8001</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269">
         <v>26.2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2016</v>
       </c>
       <c r="B270">
         <v>8000</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270">
         <v>29.2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2016</v>
       </c>
       <c r="B271">
         <v>11001</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271">
         <v>25.9</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2016</v>
       </c>
       <c r="B272">
         <v>13001</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272">
         <v>38.5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2016</v>
       </c>
       <c r="B273">
         <v>13000</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273">
         <v>48</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2016</v>
       </c>
       <c r="B274">
         <v>15000</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274">
         <v>40.5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2016</v>
       </c>
       <c r="B275">
         <v>15001</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2016</v>
       </c>
       <c r="B276">
         <v>19001</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276">
         <v>47.9</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2016</v>
       </c>
       <c r="B277">
         <v>19000</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277">
         <v>59.7</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>2016</v>
       </c>
       <c r="B278">
         <v>18000</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278">
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2016</v>
       </c>
       <c r="B279">
         <v>18001</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279">
         <v>46.1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>2016</v>
       </c>
       <c r="B280">
         <v>17001</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280">
         <v>24.2</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2016</v>
       </c>
       <c r="B281">
         <v>17000</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2016</v>
       </c>
       <c r="B282">
         <v>20000</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282">
         <v>48.5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>2016</v>
       </c>
       <c r="B283">
         <v>20001</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>2016</v>
       </c>
       <c r="B284">
         <v>23000</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284">
         <v>53.8</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>2016</v>
       </c>
       <c r="B285">
         <v>23001</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285">
         <v>35.9</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>2016</v>
       </c>
       <c r="B286">
         <v>25000</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>2016</v>
       </c>
       <c r="B287">
         <v>27000</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287">
         <v>67.2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>2016</v>
       </c>
       <c r="B288">
         <v>27001</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2016</v>
       </c>
       <c r="B289">
         <v>44001</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289">
         <v>44.9</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2016</v>
       </c>
       <c r="B290">
         <v>44000</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290">
         <v>56.1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2016</v>
       </c>
       <c r="B291">
         <v>41001</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291">
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2016</v>
       </c>
       <c r="B292">
         <v>41000</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292">
         <v>53.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2016</v>
       </c>
       <c r="B293">
         <v>47001</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293">
         <v>43.2</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2016</v>
       </c>
       <c r="B294">
         <v>47000</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294">
         <v>55.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2016</v>
       </c>
       <c r="B295">
         <v>50001</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295">
         <v>32.1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>2016</v>
       </c>
       <c r="B296">
         <v>50000</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296">
         <v>32.5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>2016</v>
       </c>
       <c r="B297">
         <v>54000</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297">
         <v>46.2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>2016</v>
       </c>
       <c r="B298">
         <v>54001</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298">
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>2016</v>
       </c>
       <c r="B299">
         <v>52000</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299">
         <v>54.1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>2016</v>
       </c>
       <c r="B300">
         <v>52001</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300">
         <v>37.1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>2016</v>
       </c>
       <c r="B301">
         <v>66001</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301">
         <v>30.2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>2016</v>
       </c>
       <c r="B302">
         <v>66000</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302">
         <v>30.8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2016</v>
       </c>
       <c r="B303">
         <v>63001</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>2016</v>
       </c>
       <c r="B304">
         <v>63000</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304">
         <v>38.9</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>2016</v>
       </c>
       <c r="B305">
         <v>68000</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305">
         <v>29.4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2016</v>
       </c>
       <c r="B306">
         <v>68001</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306">
         <v>25.9</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>2016</v>
       </c>
       <c r="B307">
         <v>70000</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307">
         <v>52.1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2016</v>
       </c>
       <c r="B308">
         <v>70001</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308">
         <v>35.1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2016</v>
       </c>
       <c r="B309">
         <v>73000</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>2016</v>
       </c>
       <c r="B310">
         <v>73001</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310">
         <v>30.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>2016</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>2016</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>2016</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>2016</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>2016</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>2016</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>2016</v>
       </c>
@@ -3638,29 +3637,29 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>2016</v>
       </c>
       <c r="B318">
         <v>76001</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318">
         <v>22.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>2016</v>
       </c>
       <c r="B319">
         <v>76000</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319">
         <v>27.5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>2016</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>2016</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>2017</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>2017</v>
       </c>
@@ -3692,29 +3691,29 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>2017</v>
       </c>
       <c r="B324">
         <v>76000</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324">
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>2017</v>
       </c>
       <c r="B325">
         <v>76001</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325">
         <v>22.2</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>2017</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>2017</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>2017</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>2017</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>2017</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>2017</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>2017</v>
       </c>
@@ -3770,502 +3769,502 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>2017</v>
       </c>
       <c r="B333">
         <v>73001</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333">
         <v>29.6</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>2017</v>
       </c>
       <c r="B334">
         <v>73000</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334">
         <v>37.6</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>2017</v>
       </c>
       <c r="B335">
         <v>70001</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335">
         <v>30.9</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>2017</v>
       </c>
       <c r="B336">
         <v>70000</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336">
         <v>47.5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>2017</v>
       </c>
       <c r="B337">
         <v>68001</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337">
         <v>27.5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>2017</v>
       </c>
       <c r="B338">
         <v>68000</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338">
         <v>29.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>2017</v>
       </c>
       <c r="B339">
         <v>63000</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339">
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>2017</v>
       </c>
       <c r="B340">
         <v>63001</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>2017</v>
       </c>
       <c r="B341">
         <v>66000</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341">
         <v>27.9</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>2017</v>
       </c>
       <c r="B342">
         <v>66001</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342">
         <v>26.8</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>2017</v>
       </c>
       <c r="B343">
         <v>52001</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343">
         <v>35.6</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>2017</v>
       </c>
       <c r="B344">
         <v>52000</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344">
         <v>48.9</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>2017</v>
       </c>
       <c r="B345">
         <v>54001</v>
       </c>
-      <c r="C345" s="1">
+      <c r="C345">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>2017</v>
       </c>
       <c r="B346">
         <v>54000</v>
       </c>
-      <c r="C346" s="1">
+      <c r="C346">
         <v>45.1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>2017</v>
       </c>
       <c r="B347">
         <v>50000</v>
       </c>
-      <c r="C347" s="1">
+      <c r="C347">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>2017</v>
       </c>
       <c r="B348">
         <v>50001</v>
       </c>
-      <c r="C348" s="1">
+      <c r="C348">
         <v>30.1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>2017</v>
       </c>
       <c r="B349">
         <v>47000</v>
       </c>
-      <c r="C349" s="1">
+      <c r="C349">
         <v>54.7</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>2017</v>
       </c>
       <c r="B350">
         <v>47001</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350">
         <v>40.4</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>2017</v>
       </c>
       <c r="B351">
         <v>41000</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351">
         <v>44.1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>2017</v>
       </c>
       <c r="B352">
         <v>41001</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352">
         <v>36.1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>2017</v>
       </c>
       <c r="B353">
         <v>44000</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353">
         <v>55.6</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>2017</v>
       </c>
       <c r="B354">
         <v>44001</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354">
         <v>44.8</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>2017</v>
       </c>
       <c r="B355">
         <v>27001</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355">
         <v>63.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>2017</v>
       </c>
       <c r="B356">
         <v>27000</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356">
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>2017</v>
       </c>
       <c r="B357">
         <v>25000</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>2017</v>
       </c>
       <c r="B358">
         <v>23001</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358">
         <v>32.9</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>2017</v>
       </c>
       <c r="B359">
         <v>23000</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359">
         <v>53.2</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>2017</v>
       </c>
       <c r="B360">
         <v>20001</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>2017</v>
       </c>
       <c r="B361">
         <v>20000</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361">
         <v>46.8</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>2017</v>
       </c>
       <c r="B362">
         <v>17000</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>2017</v>
       </c>
       <c r="B363">
         <v>17001</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363">
         <v>22.4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>2017</v>
       </c>
       <c r="B364">
         <v>18001</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364">
         <v>45.3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>2017</v>
       </c>
       <c r="B365">
         <v>18000</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365">
         <v>45.3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>2017</v>
       </c>
       <c r="B366">
         <v>19000</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366">
         <v>57.2</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>2017</v>
       </c>
       <c r="B367">
         <v>19001</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367">
         <v>45.1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>2017</v>
       </c>
       <c r="B368">
         <v>15001</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368">
         <v>32.9</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>2017</v>
       </c>
       <c r="B369">
         <v>15000</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369">
         <v>36.5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>2017</v>
       </c>
       <c r="B370">
         <v>13000</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370">
         <v>44.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>2017</v>
       </c>
       <c r="B371">
         <v>13001</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371">
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>2017</v>
       </c>
       <c r="B372">
         <v>11001</v>
       </c>
-      <c r="C372" s="1">
+      <c r="C372">
         <v>28.4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>2017</v>
       </c>
       <c r="B373">
         <v>8000</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373">
         <v>28.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>2017</v>
       </c>
       <c r="B374">
         <v>8001</v>
       </c>
-      <c r="C374" s="1">
+      <c r="C374">
         <v>24.8</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>2017</v>
       </c>
       <c r="B375">
         <v>5000</v>
       </c>
-      <c r="C375" s="1">
+      <c r="C375">
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>2017</v>
       </c>
       <c r="B376">
         <v>5001</v>
       </c>
-      <c r="C376" s="1">
+      <c r="C376">
         <v>23.3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>2017</v>
       </c>
       <c r="B377">
         <v>1001</v>
       </c>
-      <c r="C377" s="1">
+      <c r="C377">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>2017</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>2017</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>2017</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>2017</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>2017</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>2017</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>2017</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>2017</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>2018</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>2018</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>2018</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>2018</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>2018</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>2018</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>2018</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>2018</v>
       </c>
@@ -4393,502 +4392,502 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>2018</v>
       </c>
       <c r="B394">
         <v>1001</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>2018</v>
       </c>
       <c r="B395">
         <v>5001</v>
       </c>
-      <c r="C395" s="1">
+      <c r="C395">
         <v>23.2</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>2018</v>
       </c>
       <c r="B396">
         <v>5000</v>
       </c>
-      <c r="C396" s="1">
+      <c r="C396">
         <v>28.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>2018</v>
       </c>
       <c r="B397">
         <v>8001</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397">
         <v>24.9</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>2018</v>
       </c>
       <c r="B398">
         <v>8000</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398">
         <v>27.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>2018</v>
       </c>
       <c r="B399">
         <v>11001</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399">
         <v>26.4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>2018</v>
       </c>
       <c r="B400">
         <v>13001</v>
       </c>
-      <c r="C400" s="1">
+      <c r="C400">
         <v>34.9</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>2018</v>
       </c>
       <c r="B401">
         <v>13000</v>
       </c>
-      <c r="C401" s="1">
+      <c r="C401">
         <v>43.4</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>2018</v>
       </c>
       <c r="B402">
         <v>15000</v>
       </c>
-      <c r="C402" s="1">
+      <c r="C402">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>2018</v>
       </c>
       <c r="B403">
         <v>15001</v>
       </c>
-      <c r="C403" s="1">
+      <c r="C403">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>2018</v>
       </c>
       <c r="B404">
         <v>19001</v>
       </c>
-      <c r="C404" s="1">
+      <c r="C404">
         <v>43.6</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>2018</v>
       </c>
       <c r="B405">
         <v>19000</v>
       </c>
-      <c r="C405" s="1">
+      <c r="C405">
         <v>58.8</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>2018</v>
       </c>
       <c r="B406">
         <v>18000</v>
       </c>
-      <c r="C406" s="1">
+      <c r="C406">
         <v>48.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>2018</v>
       </c>
       <c r="B407">
         <v>18001</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407">
         <v>43.6</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>2018</v>
       </c>
       <c r="B408">
         <v>17001</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408">
         <v>20.3</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>2018</v>
       </c>
       <c r="B409">
         <v>17000</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409">
         <v>29.6</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>2018</v>
       </c>
       <c r="B410">
         <v>20000</v>
       </c>
-      <c r="C410" s="1">
+      <c r="C410">
         <v>48.9</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>2018</v>
       </c>
       <c r="B411">
         <v>20001</v>
       </c>
-      <c r="C411" s="1">
+      <c r="C411">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>2018</v>
       </c>
       <c r="B412">
         <v>23000</v>
       </c>
-      <c r="C412" s="1">
+      <c r="C412">
         <v>52.6</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>2018</v>
       </c>
       <c r="B413">
         <v>23001</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413">
         <v>32.6</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>2018</v>
       </c>
       <c r="B414">
         <v>25000</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414">
         <v>18.2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>2018</v>
       </c>
       <c r="B415">
         <v>27000</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C415">
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>2018</v>
       </c>
       <c r="B416">
         <v>27001</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C416">
         <v>63.8</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>2018</v>
       </c>
       <c r="B417">
         <v>44001</v>
       </c>
-      <c r="C417" s="1">
+      <c r="C417">
         <v>45.7</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>2018</v>
       </c>
       <c r="B418">
         <v>44000</v>
       </c>
-      <c r="C418" s="1">
+      <c r="C418">
         <v>57.2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>2018</v>
       </c>
       <c r="B419">
         <v>41001</v>
       </c>
-      <c r="C419" s="1">
+      <c r="C419">
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>2018</v>
       </c>
       <c r="B420">
         <v>41000</v>
       </c>
-      <c r="C420" s="1">
+      <c r="C420">
         <v>45.8</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>2018</v>
       </c>
       <c r="B421">
         <v>47001</v>
       </c>
-      <c r="C421" s="1">
+      <c r="C421">
         <v>40.6</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>2018</v>
       </c>
       <c r="B422">
         <v>47000</v>
       </c>
-      <c r="C422" s="1">
+      <c r="C422">
         <v>51.7</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>2018</v>
       </c>
       <c r="B423">
         <v>50001</v>
       </c>
-      <c r="C423" s="1">
+      <c r="C423">
         <v>29.8</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>2018</v>
       </c>
       <c r="B424">
         <v>50000</v>
       </c>
-      <c r="C424" s="1">
+      <c r="C424">
         <v>32.6</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>2018</v>
       </c>
       <c r="B425">
         <v>54000</v>
       </c>
-      <c r="C425" s="1">
+      <c r="C425">
         <v>47.4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>2018</v>
       </c>
       <c r="B426">
         <v>54001</v>
       </c>
-      <c r="C426" s="1">
+      <c r="C426">
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>2018</v>
       </c>
       <c r="B427">
         <v>52000</v>
       </c>
-      <c r="C427" s="1">
+      <c r="C427">
         <v>50.4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>2018</v>
       </c>
       <c r="B428">
         <v>52001</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C428">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>2018</v>
       </c>
       <c r="B429">
         <v>66001</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C429">
         <v>27.9</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>2018</v>
       </c>
       <c r="B430">
         <v>66000</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C430">
         <v>28.7</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>2018</v>
       </c>
       <c r="B431">
         <v>63001</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C431">
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>2018</v>
       </c>
       <c r="B432">
         <v>63000</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C432">
         <v>32.1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>2018</v>
       </c>
       <c r="B433">
         <v>68000</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C433">
         <v>30.9</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>2018</v>
       </c>
       <c r="B434">
         <v>68001</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C434">
         <v>29.8</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>2018</v>
       </c>
       <c r="B435">
         <v>70000</v>
       </c>
-      <c r="C435" s="1">
+      <c r="C435">
         <v>46.2</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>2018</v>
       </c>
       <c r="B436">
         <v>70001</v>
       </c>
-      <c r="C436" s="1">
+      <c r="C436">
         <v>30.5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>2018</v>
       </c>
       <c r="B437">
         <v>73000</v>
       </c>
-      <c r="C437" s="1">
+      <c r="C437">
         <v>39.1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>2018</v>
       </c>
       <c r="B438">
         <v>73001</v>
       </c>
-      <c r="C438" s="1">
+      <c r="C438">
         <v>29.8</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>2018</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>2018</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>2018</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>2018</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>2018</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>2018</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>2018</v>
       </c>
@@ -4944,29 +4943,29 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>2018</v>
       </c>
       <c r="B446">
         <v>76001</v>
       </c>
-      <c r="C446" s="1">
+      <c r="C446">
         <v>21.6</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>2018</v>
       </c>
       <c r="B447">
         <v>76000</v>
       </c>
-      <c r="C447" s="1">
+      <c r="C447">
         <v>24.7</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>2018</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>2018</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>2019</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>2019</v>
       </c>
@@ -4998,29 +4997,29 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>2019</v>
       </c>
       <c r="B452">
         <v>76000</v>
       </c>
-      <c r="C452" s="1">
+      <c r="C452">
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>2019</v>
       </c>
       <c r="B453">
         <v>76001</v>
       </c>
-      <c r="C453" s="1">
+      <c r="C453">
         <v>21.9</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>2019</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>2019</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>2019</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>2019</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>2019</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>2019</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>2019</v>
       </c>
@@ -5076,502 +5075,502 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>2019</v>
       </c>
       <c r="B461">
         <v>73001</v>
       </c>
-      <c r="C461" s="1">
+      <c r="C461">
         <v>30.9</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>2019</v>
       </c>
       <c r="B462">
         <v>73000</v>
       </c>
-      <c r="C462" s="1">
+      <c r="C462">
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>2019</v>
       </c>
       <c r="B463">
         <v>70001</v>
       </c>
-      <c r="C463" s="1">
+      <c r="C463">
         <v>36.5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>2019</v>
       </c>
       <c r="B464">
         <v>70000</v>
       </c>
-      <c r="C464" s="1">
+      <c r="C464">
         <v>50.3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>2019</v>
       </c>
       <c r="B465">
         <v>68001</v>
       </c>
-      <c r="C465" s="1">
+      <c r="C465">
         <v>31.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>2019</v>
       </c>
       <c r="B466">
         <v>68000</v>
       </c>
-      <c r="C466" s="1">
+      <c r="C466">
         <v>31.1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>2019</v>
       </c>
       <c r="B467">
         <v>63000</v>
       </c>
-      <c r="C467" s="1">
+      <c r="C467">
         <v>33</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>2019</v>
       </c>
       <c r="B468">
         <v>63001</v>
       </c>
-      <c r="C468" s="1">
+      <c r="C468">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>2019</v>
       </c>
       <c r="B469">
         <v>66000</v>
       </c>
-      <c r="C469" s="1">
+      <c r="C469">
         <v>28.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>2019</v>
       </c>
       <c r="B470">
         <v>66001</v>
       </c>
-      <c r="C470" s="1">
+      <c r="C470">
         <v>28.7</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>2019</v>
       </c>
       <c r="B471">
         <v>52001</v>
       </c>
-      <c r="C471" s="1">
+      <c r="C471">
         <v>36.5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>2019</v>
       </c>
       <c r="B472">
         <v>52000</v>
       </c>
-      <c r="C472" s="1">
+      <c r="C472">
         <v>51</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>2019</v>
       </c>
       <c r="B473">
         <v>54001</v>
       </c>
-      <c r="C473" s="1">
+      <c r="C473">
         <v>45.5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>2019</v>
       </c>
       <c r="B474">
         <v>54000</v>
       </c>
-      <c r="C474" s="1">
+      <c r="C474">
         <v>51.9</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>2019</v>
       </c>
       <c r="B475">
         <v>50000</v>
       </c>
-      <c r="C475" s="1">
+      <c r="C475">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>2019</v>
       </c>
       <c r="B476">
         <v>50001</v>
       </c>
-      <c r="C476" s="1">
+      <c r="C476">
         <v>30.3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>2019</v>
       </c>
       <c r="B477">
         <v>47000</v>
       </c>
-      <c r="C477" s="1">
+      <c r="C477">
         <v>53.5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>2019</v>
       </c>
       <c r="B478">
         <v>47001</v>
       </c>
-      <c r="C478" s="1">
+      <c r="C478">
         <v>44</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>2019</v>
       </c>
       <c r="B479">
         <v>41000</v>
       </c>
-      <c r="C479" s="1">
+      <c r="C479">
         <v>51.2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>2019</v>
       </c>
       <c r="B480">
         <v>41001</v>
       </c>
-      <c r="C480" s="1">
+      <c r="C480">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>2019</v>
       </c>
       <c r="B481">
         <v>44000</v>
       </c>
-      <c r="C481" s="1">
+      <c r="C481">
         <v>61.8</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>2019</v>
       </c>
       <c r="B482">
         <v>44001</v>
       </c>
-      <c r="C482" s="1">
+      <c r="C482">
         <v>49.3</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>2019</v>
       </c>
       <c r="B483">
         <v>27001</v>
       </c>
-      <c r="C483" s="1">
+      <c r="C483">
         <v>60.9</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>2019</v>
       </c>
       <c r="B484">
         <v>27000</v>
       </c>
-      <c r="C484" s="1">
+      <c r="C484">
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>2019</v>
       </c>
       <c r="B485">
         <v>25000</v>
       </c>
-      <c r="C485" s="1">
+      <c r="C485">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>2019</v>
       </c>
       <c r="B486">
         <v>23001</v>
       </c>
-      <c r="C486" s="1">
+      <c r="C486">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>2019</v>
       </c>
       <c r="B487">
         <v>23000</v>
       </c>
-      <c r="C487" s="1">
+      <c r="C487">
         <v>54.2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>2019</v>
       </c>
       <c r="B488">
         <v>20001</v>
       </c>
-      <c r="C488" s="1">
+      <c r="C488">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>2019</v>
       </c>
       <c r="B489">
         <v>20000</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C489">
         <v>51.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>2019</v>
       </c>
       <c r="B490">
         <v>17000</v>
       </c>
-      <c r="C490" s="1">
+      <c r="C490">
         <v>28.7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>2019</v>
       </c>
       <c r="B491">
         <v>17001</v>
       </c>
-      <c r="C491" s="1">
+      <c r="C491">
         <v>20.6</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>2019</v>
       </c>
       <c r="B492">
         <v>18001</v>
       </c>
-      <c r="C492" s="1">
+      <c r="C492">
         <v>43.9</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>2019</v>
       </c>
       <c r="B493">
         <v>18000</v>
       </c>
-      <c r="C493" s="1">
+      <c r="C493">
         <v>48.8</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>2019</v>
       </c>
       <c r="B494">
         <v>19000</v>
       </c>
-      <c r="C494" s="1">
+      <c r="C494">
         <v>59.6</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>2019</v>
       </c>
       <c r="B495">
         <v>19001</v>
       </c>
-      <c r="C495" s="1">
+      <c r="C495">
         <v>44.9</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>2019</v>
       </c>
       <c r="B496">
         <v>15001</v>
       </c>
-      <c r="C496" s="1">
+      <c r="C496">
         <v>32.9</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>2019</v>
       </c>
       <c r="B497">
         <v>15000</v>
       </c>
-      <c r="C497" s="1">
+      <c r="C497">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>2019</v>
       </c>
       <c r="B498">
         <v>13000</v>
       </c>
-      <c r="C498" s="1">
+      <c r="C498">
         <v>46</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>2019</v>
       </c>
       <c r="B499">
         <v>13001</v>
       </c>
-      <c r="C499" s="1">
+      <c r="C499">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>2019</v>
       </c>
       <c r="B500">
         <v>11001</v>
       </c>
-      <c r="C500" s="1">
+      <c r="C500">
         <v>27.2</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>2019</v>
       </c>
       <c r="B501">
         <v>8000</v>
       </c>
-      <c r="C501" s="1">
+      <c r="C501">
         <v>27.3</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>2019</v>
       </c>
       <c r="B502">
         <v>8001</v>
       </c>
-      <c r="C502" s="1">
+      <c r="C502">
         <v>25.6</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>2019</v>
       </c>
       <c r="B503">
         <v>5000</v>
       </c>
-      <c r="C503" s="1">
+      <c r="C503">
         <v>29.8</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>2019</v>
       </c>
       <c r="B504">
         <v>5001</v>
       </c>
-      <c r="C504" s="1">
+      <c r="C504">
         <v>24.4</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>2019</v>
       </c>
       <c r="B505">
         <v>1001</v>
       </c>
-      <c r="C505" s="1">
+      <c r="C505">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>2019</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2019</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2019</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2019</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>2019</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>2019</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>2019</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>2019</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2020</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>2020</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>2020</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>2020</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2020</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>2020</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2020</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>2020</v>
       </c>
@@ -5699,502 +5698,502 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2020</v>
       </c>
       <c r="B522">
         <v>1001</v>
       </c>
-      <c r="C522" s="1">
+      <c r="C522">
         <v>42.5</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2020</v>
       </c>
       <c r="B523">
         <v>5001</v>
       </c>
-      <c r="C523" s="1">
+      <c r="C523">
         <v>32.9</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2020</v>
       </c>
       <c r="B524">
         <v>5000</v>
       </c>
-      <c r="C524" s="1">
+      <c r="C524">
         <v>34</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>2020</v>
       </c>
       <c r="B525">
         <v>8001</v>
       </c>
-      <c r="C525" s="1">
+      <c r="C525">
         <v>41.2</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>2020</v>
       </c>
       <c r="B526">
         <v>8000</v>
       </c>
-      <c r="C526" s="1">
+      <c r="C526">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>2020</v>
       </c>
       <c r="B527">
         <v>11001</v>
       </c>
-      <c r="C527" s="1">
+      <c r="C527">
         <v>40.1</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>2020</v>
       </c>
       <c r="B528">
         <v>13001</v>
       </c>
-      <c r="C528" s="1">
+      <c r="C528">
         <v>47.8</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2020</v>
       </c>
       <c r="B529">
         <v>13000</v>
       </c>
-      <c r="C529" s="1">
+      <c r="C529">
         <v>52.7</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2020</v>
       </c>
       <c r="B530">
         <v>15000</v>
       </c>
-      <c r="C530" s="1">
+      <c r="C530">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2020</v>
       </c>
       <c r="B531">
         <v>15001</v>
       </c>
-      <c r="C531" s="1">
+      <c r="C531">
         <v>45</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2020</v>
       </c>
       <c r="B532">
         <v>19001</v>
       </c>
-      <c r="C532" s="1">
+      <c r="C532">
         <v>50.9</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>2020</v>
       </c>
       <c r="B533">
         <v>19000</v>
       </c>
-      <c r="C533" s="1">
+      <c r="C533">
         <v>55.6</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>2020</v>
       </c>
       <c r="B534">
         <v>18000</v>
       </c>
-      <c r="C534" s="1">
+      <c r="C534">
         <v>43.9</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>2020</v>
       </c>
       <c r="B535">
         <v>18001</v>
       </c>
-      <c r="C535" s="1">
+      <c r="C535">
         <v>50.5</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>2020</v>
       </c>
       <c r="B536">
         <v>17001</v>
       </c>
-      <c r="C536" s="1">
+      <c r="C536">
         <v>32.4</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>2020</v>
       </c>
       <c r="B537">
         <v>17000</v>
       </c>
-      <c r="C537" s="1">
+      <c r="C537">
         <v>30.7</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2020</v>
       </c>
       <c r="B538">
         <v>20000</v>
       </c>
-      <c r="C538" s="1">
+      <c r="C538">
         <v>58.3</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2020</v>
       </c>
       <c r="B539">
         <v>20001</v>
       </c>
-      <c r="C539" s="1">
+      <c r="C539">
         <v>53.3</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>2020</v>
       </c>
       <c r="B540">
         <v>23000</v>
       </c>
-      <c r="C540" s="1">
+      <c r="C540">
         <v>59.4</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>2020</v>
       </c>
       <c r="B541">
         <v>23001</v>
       </c>
-      <c r="C541" s="1">
+      <c r="C541">
         <v>46.8</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>2020</v>
       </c>
       <c r="B542">
         <v>25000</v>
       </c>
-      <c r="C542" s="1">
+      <c r="C542">
         <v>27</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>2020</v>
       </c>
       <c r="B543">
         <v>27000</v>
       </c>
-      <c r="C543" s="1">
+      <c r="C543">
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>2020</v>
       </c>
       <c r="B544">
         <v>27001</v>
       </c>
-      <c r="C544" s="1">
+      <c r="C544">
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>2020</v>
       </c>
       <c r="B545">
         <v>44001</v>
       </c>
-      <c r="C545" s="1">
+      <c r="C545">
         <v>57.1</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2020</v>
       </c>
       <c r="B546">
         <v>44000</v>
       </c>
-      <c r="C546" s="1">
+      <c r="C546">
         <v>66.3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>2020</v>
       </c>
       <c r="B547">
         <v>41001</v>
       </c>
-      <c r="C547" s="1">
+      <c r="C547">
         <v>48</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2020</v>
       </c>
       <c r="B548">
         <v>41000</v>
       </c>
-      <c r="C548" s="1">
+      <c r="C548">
         <v>55.6</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>2020</v>
       </c>
       <c r="B549">
         <v>47001</v>
       </c>
-      <c r="C549" s="1">
+      <c r="C549">
         <v>55.1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2020</v>
       </c>
       <c r="B550">
         <v>47000</v>
       </c>
-      <c r="C550" s="1">
+      <c r="C550">
         <v>59.8</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2020</v>
       </c>
       <c r="B551">
         <v>50001</v>
       </c>
-      <c r="C551" s="1">
+      <c r="C551">
         <v>43.1</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2020</v>
       </c>
       <c r="B552">
         <v>50000</v>
       </c>
-      <c r="C552" s="1">
+      <c r="C552">
         <v>40</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2020</v>
       </c>
       <c r="B553">
         <v>54000</v>
       </c>
-      <c r="C553" s="1">
+      <c r="C553">
         <v>56.3</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2020</v>
       </c>
       <c r="B554">
         <v>54001</v>
       </c>
-      <c r="C554" s="1">
+      <c r="C554">
         <v>53.5</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2020</v>
       </c>
       <c r="B555">
         <v>52000</v>
       </c>
-      <c r="C555" s="1">
+      <c r="C555">
         <v>49.9</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>2020</v>
       </c>
       <c r="B556">
         <v>52001</v>
       </c>
-      <c r="C556" s="1">
+      <c r="C556">
         <v>45.7</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>2020</v>
       </c>
       <c r="B557">
         <v>66001</v>
       </c>
-      <c r="C557" s="1">
+      <c r="C557">
         <v>40.6</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>2020</v>
       </c>
       <c r="B558">
         <v>66000</v>
       </c>
-      <c r="C558" s="1">
+      <c r="C558">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>2020</v>
       </c>
       <c r="B559">
         <v>63001</v>
       </c>
-      <c r="C559" s="1">
+      <c r="C559">
         <v>45.3</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>2020</v>
       </c>
       <c r="B560">
         <v>63000</v>
       </c>
-      <c r="C560" s="1">
+      <c r="C560">
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>2020</v>
       </c>
       <c r="B561">
         <v>68000</v>
       </c>
-      <c r="C561" s="1">
+      <c r="C561">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>2020</v>
       </c>
       <c r="B562">
         <v>68001</v>
       </c>
-      <c r="C562" s="1">
+      <c r="C562">
         <v>46.1</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>2020</v>
       </c>
       <c r="B563">
         <v>70000</v>
       </c>
-      <c r="C563" s="1">
+      <c r="C563">
         <v>51.4</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>2020</v>
       </c>
       <c r="B564">
         <v>70001</v>
       </c>
-      <c r="C564" s="1">
+      <c r="C564">
         <v>49.8</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>2020</v>
       </c>
       <c r="B565">
         <v>73000</v>
       </c>
-      <c r="C565" s="1">
+      <c r="C565">
         <v>45.7</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>2020</v>
       </c>
       <c r="B566">
         <v>73001</v>
       </c>
-      <c r="C566" s="1">
+      <c r="C566">
         <v>43.2</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>2020</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>2020</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>2020</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>2020</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>2020</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>2020</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>2020</v>
       </c>
@@ -6250,29 +6249,29 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>2020</v>
       </c>
       <c r="B574">
         <v>76001</v>
       </c>
-      <c r="C574" s="1">
+      <c r="C574">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>2020</v>
       </c>
       <c r="B575">
         <v>76000</v>
       </c>
-      <c r="C575" s="1">
+      <c r="C575">
         <v>34.5</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>2020</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>2020</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>2021</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>2021</v>
       </c>
@@ -6304,29 +6303,29 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>2021</v>
       </c>
       <c r="B580">
         <v>76000</v>
       </c>
-      <c r="C580" s="1">
+      <c r="C580">
         <v>29.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2021</v>
       </c>
       <c r="B581">
         <v>76001</v>
       </c>
-      <c r="C581" s="1">
+      <c r="C581">
         <v>29.3</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>2021</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2021</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>2021</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>86001</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>2021</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>2021</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>2021</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>2021</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>2021</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>2021</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>2021</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>2021</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2021</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>2021</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>2021</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>2021</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>2021</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>2021</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>2021</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>2021</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>2021</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>2021</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>2021</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>2021</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>2021</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>2021</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>2021</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>2021</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>2021</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>2021</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>2021</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>2021</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>2021</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>2021</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>2021</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>2021</v>
       </c>
@@ -6690,7 +6689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>2021</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>2021</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>2021</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>2021</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>2021</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>2021</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>2021</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>2021</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2021</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2021</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2021</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>2021</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>2021</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>2021</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>2021</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>2021</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>2021</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2021</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>2021</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>2021</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>2021</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>2021</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>97001</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2021</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>2021</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>2021</v>
       </c>
